--- a/Code/Results/Cases/Case_5_118/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_118/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.83433399918356</v>
+        <v>21.00161372784111</v>
       </c>
       <c r="C2">
-        <v>5.101054154506455</v>
+        <v>2.971355352184507</v>
       </c>
       <c r="D2">
-        <v>6.343568153985332</v>
+        <v>4.486033468703581</v>
       </c>
       <c r="E2">
-        <v>5.677882800764173</v>
+        <v>10.53686874755586</v>
       </c>
       <c r="F2">
-        <v>70.77030971766175</v>
+        <v>71.63293216806579</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.698161475871023</v>
+        <v>11.31345065817433</v>
       </c>
       <c r="K2">
-        <v>10.80831705162173</v>
+        <v>17.29396089744493</v>
       </c>
       <c r="L2">
-        <v>5.389236639360514</v>
+        <v>10.81972464555595</v>
       </c>
       <c r="M2">
-        <v>10.08733663176853</v>
+        <v>18.70543065279006</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.36719436902806</v>
+        <v>21.03016882288739</v>
       </c>
       <c r="C3">
-        <v>4.78110239506573</v>
+        <v>2.819988934432347</v>
       </c>
       <c r="D3">
-        <v>6.064704398302863</v>
+        <v>4.35641589113319</v>
       </c>
       <c r="E3">
-        <v>5.724711977402454</v>
+        <v>10.55991303917255</v>
       </c>
       <c r="F3">
-        <v>68.0251998806831</v>
+        <v>70.82504543664341</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.644068178181834</v>
+        <v>11.30218204383506</v>
       </c>
       <c r="K3">
-        <v>10.49044434783844</v>
+        <v>17.33297963058585</v>
       </c>
       <c r="L3">
-        <v>5.455784437085686</v>
+        <v>10.85970154143519</v>
       </c>
       <c r="M3">
-        <v>10.05494620202268</v>
+        <v>18.76925023135851</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.08833437487502</v>
+        <v>21.05400610868024</v>
       </c>
       <c r="C4">
-        <v>4.577015688326505</v>
+        <v>2.776838938734952</v>
       </c>
       <c r="D4">
-        <v>5.888302750122872</v>
+        <v>4.273843329462611</v>
       </c>
       <c r="E4">
-        <v>5.754797845864997</v>
+        <v>10.5749019525427</v>
       </c>
       <c r="F4">
-        <v>66.31007947007829</v>
+        <v>70.32644243018953</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.611519465926722</v>
+        <v>11.2953799438293</v>
       </c>
       <c r="K4">
-        <v>10.30373490009046</v>
+        <v>17.36201502296641</v>
       </c>
       <c r="L4">
-        <v>5.499542547399698</v>
+        <v>10.88579955826682</v>
       </c>
       <c r="M4">
-        <v>10.04373028120234</v>
+        <v>18.8120863576133</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.97682085383564</v>
+        <v>21.06530247405447</v>
       </c>
       <c r="C5">
-        <v>4.491892528391282</v>
+        <v>2.765640278106269</v>
       </c>
       <c r="D5">
-        <v>5.815132299334906</v>
+        <v>4.239464926892398</v>
       </c>
       <c r="E5">
-        <v>5.767397468183773</v>
+        <v>10.58122186789469</v>
       </c>
       <c r="F5">
-        <v>65.60419150185992</v>
+        <v>70.12274315558327</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.598411820561695</v>
+        <v>11.29263745090001</v>
       </c>
       <c r="K5">
-        <v>10.2298315481042</v>
+        <v>17.37512086623438</v>
       </c>
       <c r="L5">
-        <v>5.518091881748146</v>
+        <v>10.8968258944963</v>
       </c>
       <c r="M5">
-        <v>10.04127009562179</v>
+        <v>18.83046018043168</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.95843607052283</v>
+        <v>21.06727370778163</v>
       </c>
       <c r="C6">
-        <v>4.477638836477956</v>
+        <v>2.763815866735772</v>
       </c>
       <c r="D6">
-        <v>5.802905423352692</v>
+        <v>4.233713036038255</v>
       </c>
       <c r="E6">
-        <v>5.769510246679759</v>
+        <v>10.58228409795163</v>
       </c>
       <c r="F6">
-        <v>65.48657476543683</v>
+        <v>70.08889171700415</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.596244435270593</v>
+        <v>11.29218383947581</v>
       </c>
       <c r="K6">
-        <v>10.21769329672128</v>
+        <v>17.3773739084959</v>
       </c>
       <c r="L6">
-        <v>5.521215025387752</v>
+        <v>10.89868046253703</v>
       </c>
       <c r="M6">
-        <v>10.0409869983676</v>
+        <v>18.83356656266563</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.08682169897755</v>
+        <v>21.05415205235946</v>
       </c>
       <c r="C7">
-        <v>4.57587565035266</v>
+        <v>2.77668557071437</v>
       </c>
       <c r="D7">
-        <v>5.887321123890529</v>
+        <v>4.2733826135656</v>
       </c>
       <c r="E7">
-        <v>5.754966389033397</v>
+        <v>10.57498632660982</v>
       </c>
       <c r="F7">
-        <v>66.30058710175788</v>
+        <v>70.3236971845467</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.611342073039201</v>
+        <v>11.29534283845366</v>
       </c>
       <c r="K7">
-        <v>10.30272930764498</v>
+        <v>17.36218662039015</v>
       </c>
       <c r="L7">
-        <v>5.499789818475052</v>
+        <v>10.8859466782143</v>
       </c>
       <c r="M7">
-        <v>10.04368864991996</v>
+        <v>18.81233043782427</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.6716811292821</v>
+        <v>21.01014960125462</v>
       </c>
       <c r="C8">
-        <v>4.992295115422905</v>
+        <v>2.920193009801759</v>
       </c>
       <c r="D8">
-        <v>6.248498029738117</v>
+        <v>4.44197362530051</v>
       </c>
       <c r="E8">
-        <v>5.693755574113053</v>
+        <v>10.54464056480838</v>
       </c>
       <c r="F8">
-        <v>69.83020222717931</v>
+        <v>71.35498077092916</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.679365280919552</v>
+        <v>11.30954099955477</v>
       </c>
       <c r="K8">
-        <v>10.69698939705401</v>
+        <v>17.30635890308243</v>
       </c>
       <c r="L8">
-        <v>5.411573862647563</v>
+        <v>10.83318709888837</v>
       </c>
       <c r="M8">
-        <v>10.07432616127319</v>
+        <v>18.72667781879587</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.87706762638747</v>
+        <v>20.97397554205977</v>
       </c>
       <c r="C9">
-        <v>5.750377431948918</v>
+        <v>3.270192183098579</v>
       </c>
       <c r="D9">
-        <v>6.915411622632737</v>
+        <v>4.748030900005877</v>
       </c>
       <c r="E9">
-        <v>5.584090442113951</v>
+        <v>10.49176393706369</v>
       </c>
       <c r="F9">
-        <v>76.50079380505774</v>
+        <v>73.35140493925323</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.818577610087509</v>
+        <v>11.33831069465593</v>
       </c>
       <c r="K9">
-        <v>11.53512501163657</v>
+        <v>17.2372936729259</v>
       </c>
       <c r="L9">
-        <v>5.262148702589882</v>
+        <v>10.74199967621597</v>
       </c>
       <c r="M9">
-        <v>10.20639597242992</v>
+        <v>18.58768980651886</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.7933348285928</v>
+        <v>20.97802747226087</v>
       </c>
       <c r="C10">
-        <v>6.27517269804382</v>
+        <v>3.502869419750877</v>
       </c>
       <c r="D10">
-        <v>7.380513451124873</v>
+        <v>4.956923533248776</v>
       </c>
       <c r="E10">
-        <v>5.509540339782077</v>
+        <v>10.45691557526495</v>
       </c>
       <c r="F10">
-        <v>81.23512334579394</v>
+        <v>74.79490540097447</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.925251452372274</v>
+        <v>11.36001433475518</v>
       </c>
       <c r="K10">
-        <v>12.18826306109355</v>
+        <v>17.21132990371358</v>
       </c>
       <c r="L10">
-        <v>5.167670359391574</v>
+        <v>10.68243069661479</v>
       </c>
       <c r="M10">
-        <v>10.35178675973161</v>
+        <v>18.50325401577473</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.21626258742836</v>
+        <v>20.98652062791072</v>
       </c>
       <c r="C11">
-        <v>6.507888819221328</v>
+        <v>3.603360837487464</v>
       </c>
       <c r="D11">
-        <v>7.586961188729447</v>
+        <v>5.048310776973752</v>
       </c>
       <c r="E11">
-        <v>5.476862057354129</v>
+        <v>10.44192171643683</v>
       </c>
       <c r="F11">
-        <v>83.35214471488443</v>
+        <v>75.44497729968298</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.974950440601026</v>
+        <v>11.37001109650154</v>
       </c>
       <c r="K11">
-        <v>12.49330616237328</v>
+        <v>17.20491903955061</v>
       </c>
       <c r="L11">
-        <v>5.128267781498467</v>
+        <v>10.65693205546888</v>
       </c>
       <c r="M11">
-        <v>10.42944003117891</v>
+        <v>18.46868341311775</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.37728512997572</v>
+        <v>20.99069138652688</v>
       </c>
       <c r="C12">
-        <v>6.595241291922729</v>
+        <v>3.640642027955794</v>
       </c>
       <c r="D12">
-        <v>7.664433977739248</v>
+        <v>5.082380787547222</v>
       </c>
       <c r="E12">
-        <v>5.464658961458237</v>
+        <v>10.43636673720735</v>
       </c>
       <c r="F12">
-        <v>84.14863564652721</v>
+        <v>75.69006696623659</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.993959256437696</v>
+        <v>11.37381433758496</v>
       </c>
       <c r="K12">
-        <v>12.60996635298031</v>
+        <v>17.203268723157</v>
       </c>
       <c r="L12">
-        <v>5.113886921853192</v>
+        <v>10.64750551948021</v>
       </c>
       <c r="M12">
-        <v>10.46058936903482</v>
+        <v>18.45614477408999</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.34256718519972</v>
+        <v>20.98975071984358</v>
       </c>
       <c r="C13">
-        <v>6.576461086983318</v>
+        <v>3.632647255573057</v>
       </c>
       <c r="D13">
-        <v>7.647779521359729</v>
+        <v>5.075067247727012</v>
       </c>
       <c r="E13">
-        <v>5.467279593113313</v>
+        <v>10.4375576466923</v>
       </c>
       <c r="F13">
-        <v>83.9773246621683</v>
+        <v>75.63733255273175</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.989856615537952</v>
+        <v>11.37299445674565</v>
       </c>
       <c r="K13">
-        <v>12.58479010848409</v>
+        <v>17.20358956905601</v>
       </c>
       <c r="L13">
-        <v>5.116959625314736</v>
+        <v>10.64952550904313</v>
       </c>
       <c r="M13">
-        <v>10.4538017839681</v>
+        <v>18.45882061645368</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.22949252756188</v>
+        <v>20.98684464021899</v>
       </c>
       <c r="C14">
-        <v>6.515090252651589</v>
+        <v>3.60644348178372</v>
       </c>
       <c r="D14">
-        <v>7.5933488143912</v>
+        <v>5.051124556063645</v>
       </c>
       <c r="E14">
-        <v>5.47585470167045</v>
+        <v>10.44146224605133</v>
       </c>
       <c r="F14">
-        <v>83.41777534465149</v>
+        <v>75.46516333225583</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.976510396114931</v>
+        <v>11.37032363761716</v>
       </c>
       <c r="K14">
-        <v>12.50288075245075</v>
+        <v>17.20476768537084</v>
       </c>
       <c r="L14">
-        <v>5.127073674353215</v>
+        <v>10.65615193862611</v>
       </c>
       <c r="M14">
-        <v>10.43196723395523</v>
+        <v>18.46764077691089</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.16034449166497</v>
+        <v>20.98518883264353</v>
       </c>
       <c r="C15">
-        <v>6.477401286280491</v>
+        <v>3.590292219692476</v>
       </c>
       <c r="D15">
-        <v>7.55991784755061</v>
+        <v>5.036388754943255</v>
       </c>
       <c r="E15">
-        <v>5.481129343074588</v>
+        <v>10.44386990855157</v>
       </c>
       <c r="F15">
-        <v>83.07436553775204</v>
+        <v>75.3595604058101</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.96836069696997</v>
+        <v>11.36868998369266</v>
       </c>
       <c r="K15">
-        <v>12.45285889868458</v>
+        <v>17.20559056246327</v>
       </c>
       <c r="L15">
-        <v>5.133339983900791</v>
+        <v>10.66024064997909</v>
       </c>
       <c r="M15">
-        <v>10.41882273774207</v>
+        <v>18.47311534153976</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.76581688068623</v>
+        <v>20.97760611640862</v>
       </c>
       <c r="C16">
-        <v>6.25985074892696</v>
+        <v>3.496194059895134</v>
       </c>
       <c r="D16">
-        <v>7.366920987913147</v>
+        <v>4.950876783272356</v>
       </c>
       <c r="E16">
-        <v>5.5117002792432</v>
+        <v>10.45791268722462</v>
       </c>
       <c r="F16">
-        <v>81.09603856685982</v>
+        <v>74.75227786946859</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.922028775800827</v>
+        <v>11.35936350316795</v>
       </c>
       <c r="K16">
-        <v>12.1684873616139</v>
+        <v>17.21185761499067</v>
       </c>
       <c r="L16">
-        <v>5.170319488511679</v>
+        <v>10.6841292141987</v>
       </c>
       <c r="M16">
-        <v>10.34695102660218</v>
+        <v>18.50559058117024</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.52533492123924</v>
+        <v>20.97465667351926</v>
       </c>
       <c r="C17">
-        <v>6.124911823071102</v>
+        <v>3.437094115653057</v>
       </c>
       <c r="D17">
-        <v>7.24723026729365</v>
+        <v>4.897476125670279</v>
       </c>
       <c r="E17">
-        <v>5.530766636995557</v>
+        <v>10.46674699587571</v>
       </c>
       <c r="F17">
-        <v>79.87303903003784</v>
+        <v>74.37794887930464</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.893919587713018</v>
+        <v>11.35367361675758</v>
       </c>
       <c r="K17">
-        <v>11.99606273759862</v>
+        <v>17.21708610615866</v>
       </c>
       <c r="L17">
-        <v>5.193938302045876</v>
+        <v>10.69919321303736</v>
       </c>
       <c r="M17">
-        <v>10.30587004057115</v>
+        <v>18.52649678337164</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.38759008726348</v>
+        <v>20.9735863108687</v>
       </c>
       <c r="C18">
-        <v>6.046725962467698</v>
+        <v>3.402597471053258</v>
       </c>
       <c r="D18">
-        <v>7.177901930562908</v>
+        <v>4.866419634195732</v>
       </c>
       <c r="E18">
-        <v>5.541849730922316</v>
+        <v>10.47190913161481</v>
       </c>
       <c r="F18">
-        <v>79.16613965393312</v>
+        <v>74.16203277682629</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.877860933482088</v>
+        <v>11.35041259132657</v>
       </c>
       <c r="K18">
-        <v>11.89763307255051</v>
+        <v>17.22060167348851</v>
       </c>
       <c r="L18">
-        <v>5.207858056474275</v>
+        <v>10.70800823277239</v>
       </c>
       <c r="M18">
-        <v>10.28331957559535</v>
+        <v>18.53888286557612</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.34105150146932</v>
+        <v>20.97333146977966</v>
       </c>
       <c r="C19">
-        <v>6.020152613704137</v>
+        <v>3.390831053862734</v>
       </c>
       <c r="D19">
-        <v>7.154344335197707</v>
+        <v>4.855846150616213</v>
       </c>
       <c r="E19">
-        <v>5.545622486616447</v>
+        <v>10.47367085170861</v>
       </c>
       <c r="F19">
-        <v>78.926200199967</v>
+        <v>74.08882624669016</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.872441894628235</v>
+        <v>11.34931046732141</v>
       </c>
       <c r="K19">
-        <v>11.86443449851179</v>
+        <v>17.22187924802586</v>
       </c>
       <c r="L19">
-        <v>5.212627830841848</v>
+        <v>10.71101873746321</v>
       </c>
       <c r="M19">
-        <v>10.27586697103858</v>
+        <v>18.54313863737916</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.55087540808504</v>
+        <v>20.97490585928113</v>
       </c>
       <c r="C20">
-        <v>6.139334927832276</v>
+        <v>3.443437582778181</v>
       </c>
       <c r="D20">
-        <v>7.26002157829657</v>
+        <v>4.903196195891313</v>
       </c>
       <c r="E20">
-        <v>5.528724962911241</v>
+        <v>10.46579820296721</v>
       </c>
       <c r="F20">
-        <v>80.00358748822862</v>
+        <v>74.41786113888196</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.896900438226871</v>
+        <v>11.35427811014497</v>
       </c>
       <c r="K20">
-        <v>12.01434061282017</v>
+        <v>17.21647691218839</v>
       </c>
       <c r="L20">
-        <v>5.191389210004306</v>
+        <v>10.69757404318</v>
       </c>
       <c r="M20">
-        <v>10.31013096933321</v>
+        <v>18.52423387762432</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.2626816198078</v>
+        <v>20.98767233688919</v>
       </c>
       <c r="C21">
-        <v>6.533136500256282</v>
+        <v>3.614161153217409</v>
       </c>
       <c r="D21">
-        <v>7.609355237056708</v>
+        <v>5.058171758139438</v>
       </c>
       <c r="E21">
-        <v>5.473331382081741</v>
+        <v>10.440312040919</v>
       </c>
       <c r="F21">
-        <v>83.58226777137541</v>
+        <v>75.51576391031728</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.980425203116045</v>
+        <v>11.37110764283086</v>
       </c>
       <c r="K21">
-        <v>12.52690821039533</v>
+        <v>17.20440054364109</v>
       </c>
       <c r="L21">
-        <v>5.124088051064445</v>
+        <v>10.65419938004859</v>
       </c>
       <c r="M21">
-        <v>10.43833251565178</v>
+        <v>18.46503508463333</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.73297408821241</v>
+        <v>21.00157860032989</v>
       </c>
       <c r="C22">
-        <v>6.786061508836881</v>
+        <v>3.721234309968454</v>
       </c>
       <c r="D22">
-        <v>7.833581527865063</v>
+        <v>5.15632594146116</v>
       </c>
       <c r="E22">
-        <v>5.438124698814295</v>
+        <v>10.42437125041275</v>
       </c>
       <c r="F22">
-        <v>85.89108490075407</v>
+        <v>76.22696178893776</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.036125855940186</v>
+        <v>11.38220973984454</v>
       </c>
       <c r="K22">
-        <v>12.9116928618042</v>
+        <v>17.20103884649521</v>
       </c>
       <c r="L22">
-        <v>5.083265568763173</v>
+        <v>10.62718740266663</v>
       </c>
       <c r="M22">
-        <v>10.53232887934606</v>
+        <v>18.42956577660722</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.48149890359894</v>
+        <v>20.99364837102727</v>
       </c>
       <c r="C23">
-        <v>6.651443263639247</v>
+        <v>3.664500141267599</v>
       </c>
       <c r="D23">
-        <v>7.714267719673913</v>
+        <v>5.10422965168154</v>
       </c>
       <c r="E23">
-        <v>5.456826157700767</v>
+        <v>10.4328138532237</v>
       </c>
       <c r="F23">
-        <v>84.66151387666201</v>
+        <v>75.84800543010296</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.006288170155024</v>
+        <v>11.37627495043761</v>
       </c>
       <c r="K23">
-        <v>12.68561374299925</v>
+        <v>17.20241834680792</v>
       </c>
       <c r="L23">
-        <v>5.104754317955694</v>
+        <v>10.6414822226588</v>
       </c>
       <c r="M23">
-        <v>10.48119640095409</v>
+        <v>18.44820162479989</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.53932695970042</v>
+        <v>20.97479125449514</v>
       </c>
       <c r="C24">
-        <v>6.132816141793164</v>
+        <v>3.440571318623078</v>
       </c>
       <c r="D24">
-        <v>7.254240237889737</v>
+        <v>4.900611259250299</v>
       </c>
       <c r="E24">
-        <v>5.529647624578373</v>
+        <v>10.46622689311935</v>
       </c>
       <c r="F24">
-        <v>79.94457831147137</v>
+        <v>74.3998190057646</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.89555248045743</v>
+        <v>11.35400478702377</v>
       </c>
       <c r="K24">
-        <v>12.00607500669027</v>
+        <v>17.21675074136784</v>
       </c>
       <c r="L24">
-        <v>5.192540594329449</v>
+        <v>10.69830558847596</v>
       </c>
       <c r="M24">
-        <v>10.30820128486638</v>
+        <v>18.52525579469699</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.54530962662846</v>
+        <v>20.97838506227195</v>
       </c>
       <c r="C25">
-        <v>5.551233460110686</v>
+        <v>3.17978378673307</v>
       </c>
       <c r="D25">
-        <v>6.73942053571221</v>
+        <v>4.667972888190985</v>
       </c>
       <c r="E25">
-        <v>5.612677665681913</v>
+        <v>10.50536295188873</v>
       </c>
       <c r="F25">
-        <v>74.72489352266646</v>
+        <v>72.81486936727323</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.780211866646071</v>
+        <v>11.33042828990341</v>
       </c>
       <c r="K25">
-        <v>11.3017023822651</v>
+        <v>17.25163462422744</v>
       </c>
       <c r="L25">
-        <v>5.299961077551361</v>
+        <v>10.7653601280401</v>
       </c>
       <c r="M25">
-        <v>10.16250556658274</v>
+        <v>18.62218609169955</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_118/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_118/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.00161372784111</v>
+        <v>13.83433399918349</v>
       </c>
       <c r="C2">
-        <v>2.971355352184507</v>
+        <v>5.101054154506437</v>
       </c>
       <c r="D2">
-        <v>4.486033468703581</v>
+        <v>6.343568153985283</v>
       </c>
       <c r="E2">
-        <v>10.53686874755586</v>
+        <v>5.67788280076417</v>
       </c>
       <c r="F2">
-        <v>71.63293216806579</v>
+        <v>70.77030971766169</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.31345065817433</v>
+        <v>7.698161475871067</v>
       </c>
       <c r="K2">
-        <v>17.29396089744493</v>
+        <v>10.80831705162167</v>
       </c>
       <c r="L2">
-        <v>10.81972464555595</v>
+        <v>5.389236639360587</v>
       </c>
       <c r="M2">
-        <v>18.70543065279006</v>
+        <v>10.08733663176848</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.03016882288739</v>
+        <v>13.36719436902806</v>
       </c>
       <c r="C3">
-        <v>2.819988934432347</v>
+        <v>4.781102395065788</v>
       </c>
       <c r="D3">
-        <v>4.35641589113319</v>
+        <v>6.064704398302898</v>
       </c>
       <c r="E3">
-        <v>10.55991303917255</v>
+        <v>5.724711977402388</v>
       </c>
       <c r="F3">
-        <v>70.82504543664341</v>
+        <v>68.02519988068305</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.30218204383506</v>
+        <v>7.644068178181855</v>
       </c>
       <c r="K3">
-        <v>17.33297963058585</v>
+        <v>10.4904443478385</v>
       </c>
       <c r="L3">
-        <v>10.85970154143519</v>
+        <v>5.455784437085649</v>
       </c>
       <c r="M3">
-        <v>18.76925023135851</v>
+        <v>10.05494620202269</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.05400610868024</v>
+        <v>13.08833437487499</v>
       </c>
       <c r="C4">
-        <v>2.776838938734952</v>
+        <v>4.577015688326753</v>
       </c>
       <c r="D4">
-        <v>4.273843329462611</v>
+        <v>5.888302750123005</v>
       </c>
       <c r="E4">
-        <v>10.5749019525427</v>
+        <v>5.754797845864989</v>
       </c>
       <c r="F4">
-        <v>70.32644243018953</v>
+        <v>66.31007947007822</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.2953799438293</v>
+        <v>7.611519465926777</v>
       </c>
       <c r="K4">
-        <v>17.36201502296641</v>
+        <v>10.30373490009044</v>
       </c>
       <c r="L4">
-        <v>10.88579955826682</v>
+        <v>5.49954254739958</v>
       </c>
       <c r="M4">
-        <v>18.8120863576133</v>
+        <v>10.04373028120229</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.06530247405447</v>
+        <v>12.97682085383569</v>
       </c>
       <c r="C5">
-        <v>2.765640278106269</v>
+        <v>4.491892528391408</v>
       </c>
       <c r="D5">
-        <v>4.239464926892398</v>
+        <v>5.815132299334879</v>
       </c>
       <c r="E5">
-        <v>10.58122186789469</v>
+        <v>5.767397468183842</v>
       </c>
       <c r="F5">
-        <v>70.12274315558327</v>
+        <v>65.60419150185976</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.29263745090001</v>
+        <v>7.598411820561786</v>
       </c>
       <c r="K5">
-        <v>17.37512086623438</v>
+        <v>10.22983154810419</v>
       </c>
       <c r="L5">
-        <v>10.8968258944963</v>
+        <v>5.518091881748098</v>
       </c>
       <c r="M5">
-        <v>18.83046018043168</v>
+        <v>10.04127009562183</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.06727370778163</v>
+        <v>12.95843607052263</v>
       </c>
       <c r="C6">
-        <v>2.763815866735772</v>
+        <v>4.477638836477985</v>
       </c>
       <c r="D6">
-        <v>4.233713036038255</v>
+        <v>5.802905423352707</v>
       </c>
       <c r="E6">
-        <v>10.58228409795163</v>
+        <v>5.769510246679634</v>
       </c>
       <c r="F6">
-        <v>70.08889171700415</v>
+        <v>65.48657476543647</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.29218383947581</v>
+        <v>7.596244435270427</v>
       </c>
       <c r="K6">
-        <v>17.3773739084959</v>
+        <v>10.21769329672112</v>
       </c>
       <c r="L6">
-        <v>10.89868046253703</v>
+        <v>5.521215025387587</v>
       </c>
       <c r="M6">
-        <v>18.83356656266563</v>
+        <v>10.0409869983674</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.05415205235946</v>
+        <v>13.08682169897752</v>
       </c>
       <c r="C7">
-        <v>2.77668557071437</v>
+        <v>4.575875650352889</v>
       </c>
       <c r="D7">
-        <v>4.2733826135656</v>
+        <v>5.887321123890596</v>
       </c>
       <c r="E7">
-        <v>10.57498632660982</v>
+        <v>5.754966389033395</v>
       </c>
       <c r="F7">
-        <v>70.3236971845467</v>
+        <v>66.30058710175791</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.29534283845366</v>
+        <v>7.611342073039269</v>
       </c>
       <c r="K7">
-        <v>17.36218662039015</v>
+        <v>10.3027293076449</v>
       </c>
       <c r="L7">
-        <v>10.8859466782143</v>
+        <v>5.499789818475047</v>
       </c>
       <c r="M7">
-        <v>18.81233043782427</v>
+        <v>10.04368864991993</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.01014960125462</v>
+        <v>13.67168112928214</v>
       </c>
       <c r="C8">
-        <v>2.920193009801759</v>
+        <v>4.992295115423125</v>
       </c>
       <c r="D8">
-        <v>4.44197362530051</v>
+        <v>6.248498029738063</v>
       </c>
       <c r="E8">
-        <v>10.54464056480838</v>
+        <v>5.693755574113174</v>
       </c>
       <c r="F8">
-        <v>71.35498077092916</v>
+        <v>69.83020222717954</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.30954099955477</v>
+        <v>7.679365280919534</v>
       </c>
       <c r="K8">
-        <v>17.30635890308243</v>
+        <v>10.69698939705399</v>
       </c>
       <c r="L8">
-        <v>10.83318709888837</v>
+        <v>5.41157386264756</v>
       </c>
       <c r="M8">
-        <v>18.72667781879587</v>
+        <v>10.07432616127323</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.97397554205977</v>
+        <v>14.87706762638737</v>
       </c>
       <c r="C9">
-        <v>3.270192183098579</v>
+        <v>5.750377431948992</v>
       </c>
       <c r="D9">
-        <v>4.748030900005877</v>
+        <v>6.915411622632626</v>
       </c>
       <c r="E9">
-        <v>10.49176393706369</v>
+        <v>5.584090442113895</v>
       </c>
       <c r="F9">
-        <v>73.35140493925323</v>
+        <v>76.50079380505778</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.33831069465593</v>
+        <v>7.818577610087436</v>
       </c>
       <c r="K9">
-        <v>17.2372936729259</v>
+        <v>11.53512501163647</v>
       </c>
       <c r="L9">
-        <v>10.74199967621597</v>
+        <v>5.262148702589798</v>
       </c>
       <c r="M9">
-        <v>18.58768980651886</v>
+        <v>10.20639597242979</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.97802747226087</v>
+        <v>15.79333482859281</v>
       </c>
       <c r="C10">
-        <v>3.502869419750877</v>
+        <v>6.275172698043472</v>
       </c>
       <c r="D10">
-        <v>4.956923533248776</v>
+        <v>7.38051345112487</v>
       </c>
       <c r="E10">
-        <v>10.45691557526495</v>
+        <v>5.50954033978215</v>
       </c>
       <c r="F10">
-        <v>74.79490540097447</v>
+        <v>81.23512334579381</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.36001433475518</v>
+        <v>7.925251452372304</v>
       </c>
       <c r="K10">
-        <v>17.21132990371358</v>
+        <v>12.18826306109358</v>
       </c>
       <c r="L10">
-        <v>10.68243069661479</v>
+        <v>5.167670359391664</v>
       </c>
       <c r="M10">
-        <v>18.50325401577473</v>
+        <v>10.35178675973167</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.98652062791072</v>
+        <v>16.21626258742831</v>
       </c>
       <c r="C11">
-        <v>3.603360837487464</v>
+        <v>6.50788881922139</v>
       </c>
       <c r="D11">
-        <v>5.048310776973752</v>
+        <v>7.586961188729416</v>
       </c>
       <c r="E11">
-        <v>10.44192171643683</v>
+        <v>5.476862057354193</v>
       </c>
       <c r="F11">
-        <v>75.44497729968298</v>
+        <v>83.35214471488412</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.37001109650154</v>
+        <v>7.974950440601039</v>
       </c>
       <c r="K11">
-        <v>17.20491903955061</v>
+        <v>12.49330616237327</v>
       </c>
       <c r="L11">
-        <v>10.65693205546888</v>
+        <v>5.128267781498534</v>
       </c>
       <c r="M11">
-        <v>18.46868341311775</v>
+        <v>10.42944003117892</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.99069138652688</v>
+        <v>16.37728512997572</v>
       </c>
       <c r="C12">
-        <v>3.640642027955794</v>
+        <v>6.5952412919227</v>
       </c>
       <c r="D12">
-        <v>5.082380787547222</v>
+        <v>7.6644339777393</v>
       </c>
       <c r="E12">
-        <v>10.43636673720735</v>
+        <v>5.464658961458185</v>
       </c>
       <c r="F12">
-        <v>75.69006696623659</v>
+        <v>84.14863564652735</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.37381433758496</v>
+        <v>7.993959256437664</v>
       </c>
       <c r="K12">
-        <v>17.203268723157</v>
+        <v>12.6099663529803</v>
       </c>
       <c r="L12">
-        <v>10.64750551948021</v>
+        <v>5.113886921853139</v>
       </c>
       <c r="M12">
-        <v>18.45614477408999</v>
+        <v>10.46058936903482</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.98975071984358</v>
+        <v>16.34256718519975</v>
       </c>
       <c r="C13">
-        <v>3.632647255573057</v>
+        <v>6.576461086983317</v>
       </c>
       <c r="D13">
-        <v>5.075067247727012</v>
+        <v>7.647779521359594</v>
       </c>
       <c r="E13">
-        <v>10.4375576466923</v>
+        <v>5.467279593113437</v>
       </c>
       <c r="F13">
-        <v>75.63733255273175</v>
+        <v>83.977324662168</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.37299445674565</v>
+        <v>7.98985661553797</v>
       </c>
       <c r="K13">
-        <v>17.20358956905601</v>
+        <v>12.58479010848412</v>
       </c>
       <c r="L13">
-        <v>10.64952550904313</v>
+        <v>5.116959625314815</v>
       </c>
       <c r="M13">
-        <v>18.45882061645368</v>
+        <v>10.4538017839682</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.98684464021899</v>
+        <v>16.22949252756187</v>
       </c>
       <c r="C14">
-        <v>3.60644348178372</v>
+        <v>6.515090252651337</v>
       </c>
       <c r="D14">
-        <v>5.051124556063645</v>
+        <v>7.593348814391403</v>
       </c>
       <c r="E14">
-        <v>10.44146224605133</v>
+        <v>5.475854701670454</v>
       </c>
       <c r="F14">
-        <v>75.46516333225583</v>
+        <v>83.41777534465199</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.37032363761716</v>
+        <v>7.976510396115054</v>
       </c>
       <c r="K14">
-        <v>17.20476768537084</v>
+        <v>12.50288075245071</v>
       </c>
       <c r="L14">
-        <v>10.65615193862611</v>
+        <v>5.127073674353179</v>
       </c>
       <c r="M14">
-        <v>18.46764077691089</v>
+        <v>10.43196723395521</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.98518883264353</v>
+        <v>16.16034449166492</v>
       </c>
       <c r="C15">
-        <v>3.590292219692476</v>
+        <v>6.477401286280789</v>
       </c>
       <c r="D15">
-        <v>5.036388754943255</v>
+        <v>7.559917847550607</v>
       </c>
       <c r="E15">
-        <v>10.44386990855157</v>
+        <v>5.48112934307459</v>
       </c>
       <c r="F15">
-        <v>75.3595604058101</v>
+        <v>83.07436553775176</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.36868998369266</v>
+        <v>7.96836069697004</v>
       </c>
       <c r="K15">
-        <v>17.20559056246327</v>
+        <v>12.45285889868458</v>
       </c>
       <c r="L15">
-        <v>10.66024064997909</v>
+        <v>5.133339983900809</v>
       </c>
       <c r="M15">
-        <v>18.47311534153976</v>
+        <v>10.41882273774211</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.97760611640862</v>
+        <v>15.76581688068623</v>
       </c>
       <c r="C16">
-        <v>3.496194059895134</v>
+        <v>6.25985074892676</v>
       </c>
       <c r="D16">
-        <v>4.950876783272356</v>
+        <v>7.366920987913132</v>
       </c>
       <c r="E16">
-        <v>10.45791268722462</v>
+        <v>5.511700279243129</v>
       </c>
       <c r="F16">
-        <v>74.75227786946859</v>
+        <v>81.0960385668597</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.35936350316795</v>
+        <v>7.922028775800722</v>
       </c>
       <c r="K16">
-        <v>17.21185761499067</v>
+        <v>12.16848736161394</v>
       </c>
       <c r="L16">
-        <v>10.6841292141987</v>
+        <v>5.170319488511736</v>
       </c>
       <c r="M16">
-        <v>18.50559058117024</v>
+        <v>10.34695102660219</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.97465667351926</v>
+        <v>15.52533492123921</v>
       </c>
       <c r="C17">
-        <v>3.437094115653057</v>
+        <v>6.124911823070997</v>
       </c>
       <c r="D17">
-        <v>4.897476125670279</v>
+        <v>7.247230267293743</v>
       </c>
       <c r="E17">
-        <v>10.46674699587571</v>
+        <v>5.530766636995432</v>
       </c>
       <c r="F17">
-        <v>74.37794887930464</v>
+        <v>79.87303903003794</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.35367361675758</v>
+        <v>7.893919587712997</v>
       </c>
       <c r="K17">
-        <v>17.21708610615866</v>
+        <v>11.99606273759859</v>
       </c>
       <c r="L17">
-        <v>10.69919321303736</v>
+        <v>5.193938302045829</v>
       </c>
       <c r="M17">
-        <v>18.52649678337164</v>
+        <v>10.30587004057106</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.9735863108687</v>
+        <v>15.38759008726343</v>
       </c>
       <c r="C18">
-        <v>3.402597471053258</v>
+        <v>6.046725962467893</v>
       </c>
       <c r="D18">
-        <v>4.866419634195732</v>
+        <v>7.177901930562997</v>
       </c>
       <c r="E18">
-        <v>10.47190913161481</v>
+        <v>5.541849730922429</v>
       </c>
       <c r="F18">
-        <v>74.16203277682629</v>
+        <v>79.16613965393347</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.35041259132657</v>
+        <v>7.877860933482148</v>
       </c>
       <c r="K18">
-        <v>17.22060167348851</v>
+        <v>11.89763307255045</v>
       </c>
       <c r="L18">
-        <v>10.70800823277239</v>
+        <v>5.20785805647431</v>
       </c>
       <c r="M18">
-        <v>18.53888286557612</v>
+        <v>10.28331957559529</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.97333146977966</v>
+        <v>15.34105150146931</v>
       </c>
       <c r="C19">
-        <v>3.390831053862734</v>
+        <v>6.020152613703895</v>
       </c>
       <c r="D19">
-        <v>4.855846150616213</v>
+        <v>7.154344335197721</v>
       </c>
       <c r="E19">
-        <v>10.47367085170861</v>
+        <v>5.54562248661632</v>
       </c>
       <c r="F19">
-        <v>74.08882624669016</v>
+        <v>78.92620019996707</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.34931046732141</v>
+        <v>7.872441894628157</v>
       </c>
       <c r="K19">
-        <v>17.22187924802586</v>
+        <v>11.86443449851178</v>
       </c>
       <c r="L19">
-        <v>10.71101873746321</v>
+        <v>5.212627830841822</v>
       </c>
       <c r="M19">
-        <v>18.54313863737916</v>
+        <v>10.27586697103854</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.97490585928113</v>
+        <v>15.55087540808501</v>
       </c>
       <c r="C20">
-        <v>3.443437582778181</v>
+        <v>6.139334927832575</v>
       </c>
       <c r="D20">
-        <v>4.903196195891313</v>
+        <v>7.260021578296737</v>
       </c>
       <c r="E20">
-        <v>10.46579820296721</v>
+        <v>5.528724962911246</v>
       </c>
       <c r="F20">
-        <v>74.41786113888196</v>
+        <v>80.00358748822892</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.35427811014497</v>
+        <v>7.896900438226913</v>
       </c>
       <c r="K20">
-        <v>17.21647691218839</v>
+        <v>12.01434061282012</v>
       </c>
       <c r="L20">
-        <v>10.69757404318</v>
+        <v>5.191389210004225</v>
       </c>
       <c r="M20">
-        <v>18.52423387762432</v>
+        <v>10.3101309693331</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.98767233688919</v>
+        <v>16.26268161980776</v>
       </c>
       <c r="C21">
-        <v>3.614161153217409</v>
+        <v>6.533136500256019</v>
       </c>
       <c r="D21">
-        <v>5.058171758139438</v>
+        <v>7.609355237056856</v>
       </c>
       <c r="E21">
-        <v>10.440312040919</v>
+        <v>5.473331382081572</v>
       </c>
       <c r="F21">
-        <v>75.51576391031728</v>
+        <v>83.58226777137597</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.37110764283086</v>
+        <v>7.980425203116039</v>
       </c>
       <c r="K21">
-        <v>17.20440054364109</v>
+        <v>12.5269082103953</v>
       </c>
       <c r="L21">
-        <v>10.65419938004859</v>
+        <v>5.124088051064415</v>
       </c>
       <c r="M21">
-        <v>18.46503508463333</v>
+        <v>10.43833251565174</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.00157860032989</v>
+        <v>16.73297408821242</v>
       </c>
       <c r="C22">
-        <v>3.721234309968454</v>
+        <v>6.786061508836625</v>
       </c>
       <c r="D22">
-        <v>5.15632594146116</v>
+        <v>7.833581527865101</v>
       </c>
       <c r="E22">
-        <v>10.42437125041275</v>
+        <v>5.438124698814229</v>
       </c>
       <c r="F22">
-        <v>76.22696178893776</v>
+        <v>85.89108490075427</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.38220973984454</v>
+        <v>8.036125855940099</v>
       </c>
       <c r="K22">
-        <v>17.20103884649521</v>
+        <v>12.91169286180416</v>
       </c>
       <c r="L22">
-        <v>10.62718740266663</v>
+        <v>5.083265568763196</v>
       </c>
       <c r="M22">
-        <v>18.42956577660722</v>
+        <v>10.53232887934605</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.99364837102727</v>
+        <v>16.48149890359889</v>
       </c>
       <c r="C23">
-        <v>3.664500141267599</v>
+        <v>6.651443263639265</v>
       </c>
       <c r="D23">
-        <v>5.10422965168154</v>
+        <v>7.714267719673938</v>
       </c>
       <c r="E23">
-        <v>10.4328138532237</v>
+        <v>5.456826157700807</v>
       </c>
       <c r="F23">
-        <v>75.84800543010296</v>
+        <v>84.66151387666226</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.37627495043761</v>
+        <v>8.006288170155027</v>
       </c>
       <c r="K23">
-        <v>17.20241834680792</v>
+        <v>12.68561374299926</v>
       </c>
       <c r="L23">
-        <v>10.6414822226588</v>
+        <v>5.104754317955748</v>
       </c>
       <c r="M23">
-        <v>18.44820162479989</v>
+        <v>10.48119640095408</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.97479125449514</v>
+        <v>15.53932695970042</v>
       </c>
       <c r="C24">
-        <v>3.440571318623078</v>
+        <v>6.132816141793276</v>
       </c>
       <c r="D24">
-        <v>4.900611259250299</v>
+        <v>7.254240237889769</v>
       </c>
       <c r="E24">
-        <v>10.46622689311935</v>
+        <v>5.529647624578369</v>
       </c>
       <c r="F24">
-        <v>74.3998190057646</v>
+        <v>79.94457831147129</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.35400478702377</v>
+        <v>7.895552480457456</v>
       </c>
       <c r="K24">
-        <v>17.21675074136784</v>
+        <v>12.00607500669027</v>
       </c>
       <c r="L24">
-        <v>10.69830558847596</v>
+        <v>5.192540594329461</v>
       </c>
       <c r="M24">
-        <v>18.52525579469699</v>
+        <v>10.30820128486635</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.97838506227195</v>
+        <v>14.54530962662856</v>
       </c>
       <c r="C25">
-        <v>3.17978378673307</v>
+        <v>5.551233460110928</v>
       </c>
       <c r="D25">
-        <v>4.667972888190985</v>
+        <v>6.739420535712043</v>
       </c>
       <c r="E25">
-        <v>10.50536295188873</v>
+        <v>5.612677665681918</v>
       </c>
       <c r="F25">
-        <v>72.81486936727323</v>
+        <v>74.72489352266626</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.33042828990341</v>
+        <v>7.780211866646016</v>
       </c>
       <c r="K25">
-        <v>17.25163462422744</v>
+        <v>11.30170238226518</v>
       </c>
       <c r="L25">
-        <v>10.7653601280401</v>
+        <v>5.299961077551347</v>
       </c>
       <c r="M25">
-        <v>18.62218609169955</v>
+        <v>10.16250556658282</v>
       </c>
       <c r="N25">
         <v>0</v>
